--- a/graphsperminute.xlsx
+++ b/graphsperminute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,28 +435,58 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -464,28 +494,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20</v>
+      </c>
+      <c r="O2" t="n">
+        <v>22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>23</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24</v>
+      </c>
+      <c r="S2" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -493,28 +553,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42.43</v>
+        <v>52.2</v>
       </c>
       <c r="C3" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.85</v>
+      </c>
+      <c r="E3" t="n">
         <v>55.9</v>
       </c>
-      <c r="D3" t="n">
-        <v>49.24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>43.01</v>
-      </c>
       <c r="F3" t="n">
-        <v>40.31</v>
+        <v>110.11</v>
       </c>
       <c r="G3" t="n">
-        <v>47.17</v>
+        <v>101.24</v>
       </c>
       <c r="H3" t="n">
-        <v>40.31</v>
+        <v>58.31</v>
       </c>
       <c r="I3" t="n">
-        <v>44.72</v>
+        <v>45.28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>71.06</v>
+      </c>
+      <c r="O3" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="R3" t="n">
+        <v>58.31</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.01</v>
       </c>
     </row>
     <row r="4">
@@ -522,28 +612,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.22</v>
+        <v>49.15</v>
       </c>
       <c r="C4" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="E4" t="n">
         <v>59.72</v>
       </c>
-      <c r="D4" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22.89</v>
-      </c>
       <c r="F4" t="n">
-        <v>15.18</v>
+        <v>214.61</v>
       </c>
       <c r="G4" t="n">
-        <v>34.77</v>
+        <v>189.26</v>
       </c>
       <c r="H4" t="n">
-        <v>15.18</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>27.78</v>
+        <v>29.36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>123.15</v>
+      </c>
+      <c r="N4" t="n">
+        <v>103.04</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="R4" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>62.88</v>
       </c>
     </row>
     <row r="5">
@@ -551,28 +671,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="C5" t="n">
         <v>1508.5</v>
       </c>
-      <c r="C5" t="n">
-        <v>6440</v>
-      </c>
       <c r="D5" t="n">
-        <v>3136</v>
+        <v>6440</v>
       </c>
       <c r="E5" t="n">
-        <v>1508.5</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="n">
-        <v>1508.5</v>
+        <v>6440</v>
       </c>
       <c r="G5" t="n">
-        <v>3136</v>
+        <v>6440</v>
       </c>
       <c r="H5" t="n">
-        <v>1508.5</v>
+        <v>6440</v>
       </c>
       <c r="I5" t="n">
         <v>1508.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3136</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6440</v>
       </c>
     </row>
     <row r="6">
@@ -580,28 +730,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
         <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="n">
+        <v>30</v>
+      </c>
+      <c r="M6" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" t="n">
+        <v>50</v>
+      </c>
+      <c r="O6" t="n">
+        <v>30</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>50</v>
+      </c>
+      <c r="S6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
